--- a/uploads/AdvisoryEvalMatrix.xlsx
+++ b/uploads/AdvisoryEvalMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97AA8C8-A8FB-4896-9CFE-84D4DC5F3209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984BD928-7D58-494C-9E4A-2CB6A8514AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50760" yWindow="5445" windowWidth="25800" windowHeight="18450" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
+    <workbookView xWindow="-25800" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     </r>
   </si>
   <si>
-    <t>SERRVICE METHODOLOGY &amp; APPROACH</t>
-  </si>
-  <si>
     <r>
       <t>·</t>
     </r>
@@ -432,6 +429,9 @@
       </rPr>
       <t>Labour &amp; human rights</t>
     </r>
+  </si>
+  <si>
+    <t>SERVICE METHODOLOGY &amp; APPROACH</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10">
         <v>20</v>
@@ -1066,19 +1066,19 @@
     </row>
     <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10">
         <v>5</v>
@@ -1086,19 +1086,19 @@
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="22" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="13">
         <v>100</v>
@@ -1116,66 +1116,66 @@
     </row>
     <row r="23" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/AdvisoryEvalMatrix.xlsx
+++ b/uploads/AdvisoryEvalMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984BD928-7D58-494C-9E4A-2CB6A8514AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C629E87-D79C-4874-BD31-D3832C74FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
+    <workbookView xWindow="-47760" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>EVALUATION CRITERIA</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>SERVICE METHODOLOGY &amp; APPROACH</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Water industry experience is preferred
+Utilitary experience is mandatory</t>
+  </si>
+  <si>
+    <t>The backgrounds of key personnel must be provided
+An indication of the availability of key personnel must be provided
+Personnel must be appropriately qualified.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -625,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,33 +975,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D7AF77-B56D-4660-ADBB-CDF91CBA8222}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.8984375" customWidth="1"/>
     <col min="2" max="2" width="49.59765625" customWidth="1"/>
+    <col min="3" max="3" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -994,37 +1013,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1032,31 +1057,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1064,13 +1089,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
